--- a/INTLINE/data/134/DEUSTATIS/old/National accounts - Population and employment.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/National accounts - Population and employment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>National accounts - Population, employment: Germany, years</t>
   </si>
@@ -119,6 +119,9 @@
     <t>2020</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Population</t>
   </si>
   <si>
@@ -182,7 +185,7 @@
     <t>Including family workers.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:31:31</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-28 / 03:58:46</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -807,6 +810,14 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -944,6 +955,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1106,109 +1121,112 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="86">
+      <c r="A4" t="s" s="88">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="87">
+      <c r="B4" t="s" s="89">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="88">
+      <c r="C4" t="s" s="90">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="89">
+      <c r="D4" t="s" s="91">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="90">
+      <c r="E4" t="s" s="92">
         <v>7</v>
       </c>
-      <c r="F4" t="s" s="91">
+      <c r="F4" t="s" s="93">
         <v>8</v>
       </c>
-      <c r="G4" t="s" s="92">
+      <c r="G4" t="s" s="94">
         <v>9</v>
       </c>
-      <c r="H4" t="s" s="93">
+      <c r="H4" t="s" s="95">
         <v>10</v>
       </c>
-      <c r="I4" t="s" s="94">
+      <c r="I4" t="s" s="96">
         <v>11</v>
       </c>
-      <c r="J4" t="s" s="95">
+      <c r="J4" t="s" s="97">
         <v>12</v>
       </c>
-      <c r="K4" t="s" s="96">
+      <c r="K4" t="s" s="98">
         <v>13</v>
       </c>
-      <c r="L4" t="s" s="97">
+      <c r="L4" t="s" s="99">
         <v>14</v>
       </c>
-      <c r="M4" t="s" s="98">
+      <c r="M4" t="s" s="100">
         <v>15</v>
       </c>
-      <c r="N4" t="s" s="99">
+      <c r="N4" t="s" s="101">
         <v>16</v>
       </c>
-      <c r="O4" t="s" s="100">
+      <c r="O4" t="s" s="102">
         <v>17</v>
       </c>
-      <c r="P4" t="s" s="101">
+      <c r="P4" t="s" s="103">
         <v>18</v>
       </c>
-      <c r="Q4" t="s" s="102">
+      <c r="Q4" t="s" s="104">
         <v>19</v>
       </c>
-      <c r="R4" t="s" s="103">
+      <c r="R4" t="s" s="105">
         <v>20</v>
       </c>
-      <c r="S4" t="s" s="104">
+      <c r="S4" t="s" s="106">
         <v>21</v>
       </c>
-      <c r="T4" t="s" s="105">
+      <c r="T4" t="s" s="107">
         <v>22</v>
       </c>
-      <c r="U4" t="s" s="106">
+      <c r="U4" t="s" s="108">
         <v>23</v>
       </c>
-      <c r="V4" t="s" s="107">
+      <c r="V4" t="s" s="109">
         <v>24</v>
       </c>
-      <c r="W4" t="s" s="108">
+      <c r="W4" t="s" s="110">
         <v>25</v>
       </c>
-      <c r="X4" t="s" s="109">
+      <c r="X4" t="s" s="111">
         <v>26</v>
       </c>
-      <c r="Y4" t="s" s="110">
+      <c r="Y4" t="s" s="112">
         <v>27</v>
       </c>
-      <c r="Z4" t="s" s="111">
+      <c r="Z4" t="s" s="113">
         <v>28</v>
       </c>
-      <c r="AA4" t="s" s="112">
+      <c r="AA4" t="s" s="114">
         <v>29</v>
       </c>
-      <c r="AB4" t="s" s="113">
+      <c r="AB4" t="s" s="115">
         <v>30</v>
       </c>
-      <c r="AC4" t="s" s="114">
+      <c r="AC4" t="s" s="116">
         <v>31</v>
       </c>
-      <c r="AD4" t="s" s="115">
+      <c r="AD4" t="s" s="117">
         <v>32</v>
       </c>
-      <c r="AE4" t="s" s="116">
+      <c r="AE4" t="s" s="118">
         <v>33</v>
       </c>
-      <c r="AF4" t="s" s="117">
+      <c r="AF4" t="s" s="119">
         <v>34</v>
+      </c>
+      <c r="AG4" t="s" s="120">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n" s="11">
         <v>79973.0</v>
@@ -1299,14 +1317,17 @@
       </c>
       <c r="AF5" t="n" s="11">
         <v>83161.0</v>
+      </c>
+      <c r="AG5" t="n" s="11">
+        <v>83196.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="14">
         <v>37</v>
-      </c>
-      <c r="B6" t="s" s="14">
-        <v>36</v>
       </c>
       <c r="C6" t="n" s="11">
         <v>38869.0</v>
@@ -1397,14 +1418,17 @@
       </c>
       <c r="AF6" t="n" s="11">
         <v>36694.0</v>
+      </c>
+      <c r="AG6" t="n" s="11">
+        <v>36886.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n" s="11">
         <v>41104.0</v>
@@ -1495,14 +1519,17 @@
       </c>
       <c r="AF7" t="n" s="11">
         <v>46467.0</v>
+      </c>
+      <c r="AG7" t="n" s="11">
+        <v>46310.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n" s="11">
         <v>2172.0</v>
@@ -1593,14 +1620,17 @@
       </c>
       <c r="AF8" t="n" s="11">
         <v>1664.0</v>
+      </c>
+      <c r="AG8" t="n" s="11">
+        <v>1506.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n" s="11">
         <v>38932.0</v>
@@ -1691,14 +1721,17 @@
       </c>
       <c r="AF9" t="n" s="11">
         <v>44803.0</v>
+      </c>
+      <c r="AG9" t="n" s="11">
+        <v>44804.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n" s="11">
         <v>3563.0</v>
@@ -1789,14 +1822,17 @@
       </c>
       <c r="AF10" t="n" s="11">
         <v>4038.0</v>
+      </c>
+      <c r="AG10" t="n" s="11">
+        <v>3929.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n" s="11">
         <v>35369.0</v>
@@ -1887,14 +1923,17 @@
       </c>
       <c r="AF11" t="n" s="11">
         <v>40765.0</v>
+      </c>
+      <c r="AG11" t="n" s="11">
+        <v>40875.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n" s="11">
         <v>-61.0</v>
@@ -1985,14 +2024,17 @@
       </c>
       <c r="AF12" t="n" s="11">
         <v>95.0</v>
+      </c>
+      <c r="AG12" t="n" s="11">
+        <v>116.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n" s="11">
         <v>35308.0</v>
@@ -2083,14 +2125,17 @@
       </c>
       <c r="AF13" t="n" s="11">
         <v>40860.0</v>
+      </c>
+      <c r="AG13" t="n" s="11">
+        <v>40991.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n" s="11">
         <v>3563.0</v>
@@ -2181,14 +2226,17 @@
       </c>
       <c r="AF14" t="n" s="11">
         <v>4038.0</v>
+      </c>
+      <c r="AG14" t="n" s="11">
+        <v>3929.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n" s="11">
         <v>38871.0</v>
@@ -2279,14 +2327,17 @@
       </c>
       <c r="AF15" t="n" s="11">
         <v>44898.0</v>
+      </c>
+      <c r="AG15" t="n" s="11">
+        <v>44920.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="n" s="11">
         <v>51.4</v>
@@ -2377,14 +2428,17 @@
       </c>
       <c r="AF16" t="n" s="11">
         <v>55.9</v>
+      </c>
+      <c r="AG16" t="n" s="11">
+        <v>55.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s" s="14">
         <v>49</v>
-      </c>
-      <c r="B17" t="s" s="14">
-        <v>48</v>
       </c>
       <c r="C17" t="n" s="11">
         <v>5.3</v>
@@ -2475,52 +2529,55 @@
       </c>
       <c r="AF17" t="n" s="11">
         <v>3.6</v>
+      </c>
+      <c r="AG17" t="n" s="11">
+        <v>3.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="12">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="12">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="13">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:AF3"/>
-    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:31:35&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.04.22 / 03:58:50&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>